--- a/sorted_data/in_situ_classification/clean/quand_insitu_classified.xlsx
+++ b/sorted_data/in_situ_classification/clean/quand_insitu_classified.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/interrogatives-corpus-work/sorted_data/in_situ_classification/clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89160BE8-9261-A44C-A2B8-EC11E80E12D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8430C9-A150-0A44-810D-E63D13477020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="-10300" windowWidth="53120" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68800" yWindow="-10300" windowWidth="53120" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="101" r:id="rId3"/>
+    <pivotCache cacheId="106" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="179">
   <si>
     <t>Mot exact</t>
   </si>
@@ -576,6 +581,21 @@
   </si>
   <si>
     <t>modification du 11.11.2022 (Inf--&gt; EACT; N-ACT --&gt; INF)</t>
+  </si>
+  <si>
+    <t>eslo 1</t>
+  </si>
+  <si>
+    <t>Count of DECLA</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>eslo 2</t>
   </si>
 </sst>
 </file>
@@ -725,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -747,6 +767,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -763,6 +794,2634 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[quand_insitu_classified.xlsx]Sheet2!PivotTable9</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$B$6:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>EACT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>INF</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>EACT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>INF</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>INF </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>N-ACT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>FINAL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>NONF</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>DECLA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66D4-5C4A-B06E-A95DF003781B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1665860880"/>
+        <c:axId val="1665862528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1665860880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1665862528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1665862528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1665860880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[quand_insitu_classified.xlsx]Sheet2!PivotTable10</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$B$28:$B$38</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>EACT</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>INF</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>INF </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>EACT</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>INF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>INF </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>N-ACT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>FINAL</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>NONF</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>DECLA</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$28:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A8E-0244-95F1-C4E7C312A529}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1268862783"/>
+        <c:axId val="1269560127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1268862783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269560127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269560127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1268862783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9A4173-96DD-255C-F62A-33AAF3CE1132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B4D212-30C9-4AF0-7251-E07BC6D6AA33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44886.471958564813" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{8F75085D-396D-234C-9427-EB27CA84AD4D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D2:F17" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="DECLA" numFmtId="0">
+      <sharedItems count="1">
+        <s v="DECLA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="FINAL" numFmtId="0">
+      <sharedItems count="2">
+        <s v="FINAL"/>
+        <s v="NONF"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="INF" numFmtId="0">
+      <sharedItems count="4">
+        <s v="INF"/>
+        <s v="N-ACT"/>
+        <s v="INF "/>
+        <s v="EACT"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44886.472629861113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="29" xr:uid="{D42E9A80-7AEE-2947-AEF0-314237AD8971}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D18:F47" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="DECLA" numFmtId="0">
+      <sharedItems count="1">
+        <s v="DECLA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="FINAL" numFmtId="0">
+      <sharedItems count="2">
+        <s v="FINAL"/>
+        <s v="NONF"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="INF" numFmtId="0">
+      <sharedItems count="4">
+        <s v="INF"/>
+        <s v="INF "/>
+        <s v="EACT"/>
+        <s v="N-ACT"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="29">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4971D1EB-E90F-994D-88D5-FC5D7FB2D145}" name="PivotTable10" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B27:C38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of DECLA" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{258C11DE-B60C-FD41-BACB-A9EA30C80FDE}" name="PivotTable9" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B5:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of DECLA" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1088,7 +3747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" activeCellId="3" sqref="G36 G17 G15 G13"/>
     </sheetView>
   </sheetViews>
@@ -2774,4 +5433,219 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBC7A98-CE33-1F4B-88BA-301CCBF391E7}">
+  <dimension ref="A3:C38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="19">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>